--- a/7_Part 4 Graphics and tables/xlsx-files/Berufe.xlsx
+++ b/7_Part 4 Graphics and tables/xlsx-files/Berufe.xlsx
@@ -464,57 +464,57 @@
         </is>
       </c>
       <c r="B2" s="3" t="n">
-        <v>18.2</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="inlineStr">
         <is>
-          <t>Arbeitslos</t>
+          <t>Student*in</t>
         </is>
       </c>
       <c r="B3" s="3" t="n">
-        <v>17.3</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="inlineStr">
         <is>
-          <t>Selbstständig</t>
+          <t>Schüler*in</t>
         </is>
       </c>
       <c r="B4" s="3" t="n">
-        <v>16.8</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="inlineStr">
         <is>
-          <t>Student*in</t>
+          <t>Rentner*in</t>
         </is>
       </c>
       <c r="B5" s="3" t="n">
-        <v>16.8</v>
+        <v>9.9</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="3" t="inlineStr">
         <is>
-          <t>Rentner*in</t>
+          <t>Arbeitslos</t>
         </is>
       </c>
       <c r="B6" s="3" t="n">
-        <v>15.8</v>
+        <v>5.3</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="3" t="inlineStr">
         <is>
-          <t>Schüler*in</t>
+          <t>Selbstständig</t>
         </is>
       </c>
       <c r="B7" s="3" t="n">
-        <v>15.1</v>
+        <v>4.8</v>
       </c>
     </row>
   </sheetData>
